--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +404,9 @@
       <c r="B2">
         <v>4935</v>
       </c>
+      <c r="C2">
+        <v>4035</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -412,6 +415,9 @@
       <c r="B3">
         <v>9454</v>
       </c>
+      <c r="C3">
+        <v>4509</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -420,6 +426,9 @@
       <c r="B4">
         <v>9441</v>
       </c>
+      <c r="C4">
+        <v>6721</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -427,6 +436,9 @@
       </c>
       <c r="B5">
         <v>5343</v>
+      </c>
+      <c r="C5">
+        <v>16194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +448,9 @@
       <c r="B6">
         <v>5829</v>
       </c>
+      <c r="C6">
+        <v>13797</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -455,6 +458,9 @@
       </c>
       <c r="B7">
         <v>11619</v>
+      </c>
+      <c r="C7">
+        <v>12627</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +470,9 @@
       <c r="B8">
         <v>10036</v>
       </c>
+      <c r="C8">
+        <v>14603</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +405,7 @@
         <v>4935</v>
       </c>
       <c r="C2">
-        <v>4035</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
         <v>9454</v>
       </c>
       <c r="C3">
-        <v>4509</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>5343</v>
       </c>
       <c r="C5">
-        <v>16194</v>
+        <v>15907</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>11619</v>
       </c>
       <c r="C7">
-        <v>12627</v>
+        <v>12996</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>10036</v>
       </c>
       <c r="C8">
-        <v>14603</v>
+        <v>20514</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +481,9 @@
       <c r="B9">
         <v>11746</v>
       </c>
+      <c r="C9">
+        <v>15186</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -488,6 +491,9 @@
       </c>
       <c r="B10">
         <v>11432</v>
+      </c>
+      <c r="C10">
+        <v>10698</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +503,9 @@
       <c r="B11">
         <v>7566</v>
       </c>
+      <c r="C11">
+        <v>12517</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>11432</v>
       </c>
       <c r="C10">
-        <v>10698</v>
+        <v>15186</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>11432</v>
       </c>
       <c r="C10">
-        <v>15186</v>
+        <v>15027</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>7566</v>
       </c>
       <c r="C11">
-        <v>12517</v>
+        <v>13756</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,6 +514,9 @@
       <c r="B12">
         <v>4035</v>
       </c>
+      <c r="C12">
+        <v>16863</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -521,6 +524,9 @@
       </c>
       <c r="B13">
         <v>7397</v>
+      </c>
+      <c r="C13">
+        <v>9893</v>
       </c>
     </row>
   </sheetData>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -396,8 +396,11 @@
       <c r="C1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -407,8 +410,11 @@
       <c r="C2">
         <v>4761</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -418,8 +424,11 @@
       <c r="C3">
         <v>6107</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>14388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -429,8 +438,11 @@
       <c r="C4">
         <v>6721</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -441,7 +453,7 @@
         <v>15907</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -452,7 +464,7 @@
         <v>13797</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -463,7 +475,7 @@
         <v>12996</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -474,7 +486,7 @@
         <v>20514</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -485,7 +497,7 @@
         <v>15186</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -496,7 +508,7 @@
         <v>15027</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -507,7 +519,7 @@
         <v>13756</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -518,7 +530,7 @@
         <v>16863</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,6 +452,9 @@
       <c r="C5">
         <v>15907</v>
       </c>
+      <c r="D5">
+        <v>18783</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -462,6 +465,9 @@
       </c>
       <c r="C6">
         <v>13797</v>
+      </c>
+      <c r="D6">
+        <v>13053</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +467,7 @@
         <v>13797</v>
       </c>
       <c r="D6">
-        <v>13053</v>
+        <v>18825</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,6 +479,9 @@
       </c>
       <c r="C7">
         <v>12996</v>
+      </c>
+      <c r="D7">
+        <v>11794</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
         <v>6107</v>
       </c>
       <c r="D3">
-        <v>14388</v>
+        <v>14384</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>6721</v>
       </c>
       <c r="D4">
-        <v>16322</v>
+        <v>18194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>20514</v>
       </c>
       <c r="D8">
-        <v>6331</v>
+        <v>15156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,6 +507,9 @@
       </c>
       <c r="C9">
         <v>15186</v>
+      </c>
+      <c r="D9">
+        <v>9143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +522,9 @@
       <c r="C10">
         <v>15027</v>
       </c>
+      <c r="D10">
+        <v>13485</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -532,6 +535,9 @@
       </c>
       <c r="C11">
         <v>13756</v>
+      </c>
+      <c r="D11">
+        <v>11342</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>15186</v>
       </c>
       <c r="D9">
-        <v>9143</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,6 +550,9 @@
       <c r="C12">
         <v>16863</v>
       </c>
+      <c r="D12">
+        <v>9050</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -560,6 +563,9 @@
       </c>
       <c r="C13">
         <v>9893</v>
+      </c>
+      <c r="D13">
+        <v>10464</v>
       </c>
     </row>
   </sheetData>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>9893</v>
       </c>
       <c r="D13">
-        <v>10464</v>
+        <v>10997</v>
       </c>
     </row>
   </sheetData>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -399,8 +399,11 @@
       <c r="D1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -413,8 +416,11 @@
       <c r="D2">
         <v>5200</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>15098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -427,8 +433,11 @@
       <c r="D3">
         <v>14384</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>10949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -441,8 +450,11 @@
       <c r="D4">
         <v>18194</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>9888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -455,8 +467,11 @@
       <c r="D5">
         <v>18783</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>11459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -469,8 +484,11 @@
       <c r="D6">
         <v>18825</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -483,8 +501,11 @@
       <c r="D7">
         <v>18740</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -497,8 +518,11 @@
       <c r="D8">
         <v>15156</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -511,8 +535,11 @@
       <c r="D9">
         <v>9944</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -525,8 +552,11 @@
       <c r="D10">
         <v>13485</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -539,8 +569,11 @@
       <c r="D11">
         <v>11342</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>9633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -553,8 +586,11 @@
       <c r="D12">
         <v>9050</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -566,6 +602,9 @@
       </c>
       <c r="D13">
         <v>10997</v>
+      </c>
+      <c r="E13">
+        <v>6752</v>
       </c>
     </row>
   </sheetData>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -402,8 +402,11 @@
       <c r="E1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -419,8 +422,11 @@
       <c r="E2">
         <v>15098</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -436,8 +442,11 @@
       <c r="E3">
         <v>10949</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -453,8 +462,11 @@
       <c r="E4">
         <v>9888</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -470,8 +482,11 @@
       <c r="E5">
         <v>11459</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -487,8 +502,11 @@
       <c r="E6">
         <v>1232</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -505,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -522,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -539,7 +557,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -556,7 +574,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -573,7 +591,7 @@
         <v>9633</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -590,7 +608,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +522,9 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>8740</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -539,6 +542,9 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8">
+        <v>8748</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -556,6 +562,9 @@
       <c r="E9">
         <v>2725</v>
       </c>
+      <c r="F9">
+        <v>4242</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -573,6 +582,9 @@
       <c r="E10">
         <v>3536</v>
       </c>
+      <c r="F10">
+        <v>7430</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -590,6 +602,9 @@
       <c r="E11">
         <v>9633</v>
       </c>
+      <c r="F11">
+        <v>2454</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -607,6 +622,9 @@
       <c r="E12">
         <v>4388</v>
       </c>
+      <c r="F12">
+        <v>3067</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -623,6 +641,9 @@
       </c>
       <c r="E13">
         <v>6752</v>
+      </c>
+      <c r="F13">
+        <v>7740</v>
       </c>
     </row>
   </sheetData>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -643,7 +643,7 @@
         <v>6752</v>
       </c>
       <c r="F13">
-        <v>7740</v>
+        <v>8838</v>
       </c>
     </row>
   </sheetData>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3552B28-267F-46AE-BD7A-38022B56FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,19 +375,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -405,8 +406,11 @@
       <c r="F1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -425,8 +429,11 @@
       <c r="F2">
         <v>5779</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>12174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -445,8 +452,11 @@
       <c r="F3">
         <v>6020</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -465,8 +475,11 @@
       <c r="F4">
         <v>4934</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>8414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -485,8 +498,11 @@
       <c r="F5">
         <v>7352</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -505,8 +521,11 @@
       <c r="F6">
         <v>7203</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>12796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -525,8 +544,11 @@
       <c r="F7">
         <v>8740</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>9372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -545,8 +567,11 @@
       <c r="F8">
         <v>8748</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>13897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -566,7 +591,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -586,7 +611,7 @@
         <v>7430</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -606,7 +631,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -626,7 +651,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3552B28-267F-46AE-BD7A-38022B56FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE559AED-75FD-4ECA-92B4-8921A6EAF42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +590,9 @@
       <c r="F9">
         <v>4242</v>
       </c>
+      <c r="G9">
+        <v>15911</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
